--- a/_posts/PCIe概念汇总表格.xlsx
+++ b/_posts/PCIe概念汇总表格.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\color\Documents\5_Notes\github_pushed\GlobeTrekLog\EnjoyLifeBlog\_posts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F30192BC-EA91-4D16-8BD6-6593205D82F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6710D90-F5F3-4EB9-AB79-E7DE375D6807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4755" yWindow="1485" windowWidth="21945" windowHeight="13650" xr2:uid="{CADBDF8C-24CB-4E9B-A858-B45A78990B2D}"/>
+    <workbookView xWindow="3300" yWindow="840" windowWidth="21945" windowHeight="13650" xr2:uid="{CADBDF8C-24CB-4E9B-A858-B45A78990B2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>PCIe 3.0</t>
   </si>
@@ -94,192 +94,6 @@
   </si>
   <si>
     <t>Gen N</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>约</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>2 GB/s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">x16 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>配置能够达到每秒</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>32 GB/s</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>约</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>4 GB/s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">x16 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>配置能够达到每秒</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>64 GB/s</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>约</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>8 GB/s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">x16 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>配置能够达到每秒</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>128 GB/s</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -406,13 +220,248 @@
   <si>
     <t>这一显著的性能提升归功于新引入的 Pulse Amplitude Modulation with 4 levels (PAM-4) 技术，这种技术允许每个信号时钟周期传输两位信息，从而加倍了传输速率，同时还采用了更复杂的前向错误校正（Forward Error Correction，FEC）机制来确保数据的完整性和可靠性。这些进步使 PCIe 6.0 成为支持未来数据中心、人工智能、机器学习和高性能计算应用的理想选择。</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>约</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>2 GB/s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">x16 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>达到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>32 GB/s</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>约</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>4 GB/s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">x16 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>达到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>64 GB/s</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>约</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>8 GB/s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">x16 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>达到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>128 GB/s</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编码方式</t>
+  </si>
+  <si>
+    <t>128b/130b</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8b/10b</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每10位传输中有2位用于错误检测和校正，有效数据率约为80%。</t>
+  </si>
+  <si>
+    <t>减少了开销，有效数据率提高到了98.46%。这种编码方式提高了信道的数据传输效率并减少了误差​​。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>说明</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保持了与 PCIe 4.0 相同的编码方式，继续提供高效的数据传输效率和低开销，支持更高的数据传输速率，适用于高性能计算和大容量数据传输需求。</t>
+  </si>
+  <si>
+    <t>尽管采用了新的 PAM-4 调制技术以提高每通道的传输速率，PCIe 6.0 仍使用 128b/130b 编码方式，维持高数据传输效率，并通过先进的 FEC（前向错误校正）增强数据完整性和可靠性。</t>
+  </si>
+  <si>
+    <t>信号完整性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于信号完整性的要求更为严格。由于速率翻倍，对电路板材料、连接器和信号的完整性管理有更高的要求，以防止数据损耗和传输错误。这可能需要采用更先进的材料和新的信号完整性技术。</t>
+  </si>
+  <si>
+    <t>需要更高质量的主板设计和更好的信号完整性解决方案来应对16 GT/s的速率。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -478,6 +527,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FF333333"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
       <name val="MS Gothic"/>
       <family val="3"/>
       <charset val="128"/>
@@ -488,6 +544,12 @@
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -512,7 +574,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -526,6 +588,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -842,86 +913,185 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49863694-3DC9-4C9E-9F13-FD7DB93CB29C}">
-  <dimension ref="C2:F6"/>
+  <dimension ref="B2:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B16" sqref="B16:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="122.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="122.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C2" t="s">
+    <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
         <v>10</v>
       </c>
+      <c r="C2" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="D2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="3:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="C3" s="1" t="s">
+    </row>
+    <row r="9" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="3:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="C4" s="1" t="s">
+      <c r="C10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="3:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="C5" s="1" t="s">
+      <c r="C11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="C6" s="1" t="s">
+      <c r="C12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
+      <c r="C13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="2:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
